--- a/biology/Botanique/Haworthia_truncata/Haworthia_truncata.xlsx
+++ b/biology/Botanique/Haworthia_truncata/Haworthia_truncata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haworthia truncata est une espèce de plante succulente du genre Haworthia et de la famille des Xanthorrhoeaceae. Elle est originaire de la Province du Cap en Afrique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes de petite taille : 2 cm de haut, 10 cm de large. L'espèce est facilement reconnaissables grâce à ses feuilles sont de section quasi-rectangulaires et disposées en deux rangées se faisant face. Ces feuilles sont de couleur gris ou gris vert se redressant pour atteindre quasiment la verticale. Leur face supérieure donne l'impression d'avoir été coupée (ou tronquée) d'où le nom de l'espèce. Elle est aplatie et translucide pour laisser passer la lumière. Les feuilles sont parcourues de lignes grises ou blanches et avec des verrucosités.
 Dans la nature, elle vit en colonies. Elle est souvent semi-enterrée ne laissant apparaitre que cette extrémité des feuilles. Tout comme les lithops, fenestraria, haworthia cymbiformis.
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa culture est relativement facile. Le substrat doit être bien drainé et plutôt minéral. On conseille un pot peu profond car les racines sont charnues comme celles de toutes les Haworthia et elles pourrissent facilement en cas de contact prolongé avec l'eau.
 Exposition ensoleillée ou légèrement ombragée.
